--- a/Spreadsheets/Retirement Path.xlsx
+++ b/Spreadsheets/Retirement Path.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trevr_000\Documents\GitHub\FIPlanner\Spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trevr\Documents\code\FIPlanner\Spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3660" windowWidth="10130" windowHeight="9420"/>
+    <workbookView xWindow="0" yWindow="4260" windowWidth="10133" windowHeight="7320"/>
   </bookViews>
   <sheets>
     <sheet name="Numbers" sheetId="1" r:id="rId1"/>
     <sheet name="Graph" sheetId="2" r:id="rId2"/>
     <sheet name="Graph to 35yr old" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -211,7 +211,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2111,7 +2110,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2466,7 +2464,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4178,7 +4175,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 3"/>
+        <xdr:cNvPr id="5" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4213,7 +4216,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4243,7 +4252,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 2"/>
+        <xdr:cNvPr id="4" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4337,6 +4352,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -4372,6 +4404,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4528,23 +4577,23 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D15" sqref="D15"/>
+      <selection pane="topRight" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="26.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.453125" customWidth="1"/>
-    <col min="3" max="3" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="26" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="33" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="34" max="35" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="42" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.46484375" customWidth="1"/>
+    <col min="3" max="3" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="26" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="33" width="11.46484375" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="36" max="42" width="12.265625" bestFit="1" customWidth="1"/>
     <col min="43" max="60" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -4723,7 +4772,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4902,7 +4951,7 @@
         <v>2072</v>
       </c>
     </row>
-    <row r="3" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4931,12 +4980,12 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="4" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -5172,7 +5221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -5204,7 +5253,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="8" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -5359,12 +5408,12 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="9" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -5372,22 +5421,22 @@
         <v>9816</v>
       </c>
     </row>
-    <row r="12" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:60" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:60" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -5566,7 +5615,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:60" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -5703,7 +5752,7 @@
         <v>960438.05626577628</v>
       </c>
       <c r="AJ17" s="4">
-        <f t="shared" ref="AJ17:BO17" si="2">SUM(AI17)*(1+AJ16)+AJ6-AJ8</f>
+        <f t="shared" ref="AJ17:BH17" si="2">SUM(AI17)*(1+AJ16)+AJ6-AJ8</f>
         <v>1003668.7202043807</v>
       </c>
       <c r="AK17" s="4">
@@ -5803,7 +5852,7 @@
         <v>3694735.9502080753</v>
       </c>
     </row>
-    <row r="18" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:60" x14ac:dyDescent="0.45">
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -5863,7 +5912,7 @@
       <c r="BG18" s="4"/>
       <c r="BH18" s="4"/>
     </row>
-    <row r="19" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:60" x14ac:dyDescent="0.45">
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -5923,7 +5972,7 @@
       <c r="BG19" s="4"/>
       <c r="BH19" s="4"/>
     </row>
-    <row r="20" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:60" x14ac:dyDescent="0.45">
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -5983,7 +6032,7 @@
       <c r="BG20" s="4"/>
       <c r="BH20" s="4"/>
     </row>
-    <row r="21" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:60" x14ac:dyDescent="0.45">
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -6043,7 +6092,7 @@
       <c r="BG21" s="4"/>
       <c r="BH21" s="4"/>
     </row>
-    <row r="22" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:60" x14ac:dyDescent="0.45">
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -6103,7 +6152,7 @@
       <c r="BG22" s="4"/>
       <c r="BH22" s="4"/>
     </row>
-    <row r="23" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:60" x14ac:dyDescent="0.45">
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -6163,7 +6212,7 @@
       <c r="BG23" s="4"/>
       <c r="BH23" s="4"/>
     </row>
-    <row r="24" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:60" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -6207,7 +6256,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="25" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:60" x14ac:dyDescent="0.45">
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -6267,7 +6316,7 @@
       <c r="BG25" s="4"/>
       <c r="BH25" s="4"/>
     </row>
-    <row r="26" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:60" x14ac:dyDescent="0.45">
       <c r="C26" s="1">
         <v>0.06</v>
       </c>
@@ -6443,7 +6492,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="27" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:60" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -6680,12 +6729,12 @@
         <v>1350204.1253439465</v>
       </c>
     </row>
-    <row r="31" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:60" x14ac:dyDescent="0.45">
       <c r="C31" s="2">
         <v>450000</v>
       </c>
     </row>
-    <row r="32" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:60" x14ac:dyDescent="0.45">
       <c r="C32" t="s">
         <v>16</v>
       </c>
@@ -6705,16 +6754,16 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="12" max="12" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="17" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q17" s="2"/>
     </row>
-    <row r="18" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q18" s="2"/>
     </row>
   </sheetData>
@@ -6731,7 +6780,7 @@
       <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
